--- a/xdp/v1/stats.xlsx
+++ b/xdp/v1/stats.xlsx
@@ -127,11 +127,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1947478473"/>
-        <c:axId val="1436423163"/>
+        <c:axId val="1174197210"/>
+        <c:axId val="1185676761"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1947478473"/>
+        <c:axId val="1174197210"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -183,10 +183,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1436423163"/>
+        <c:crossAx val="1185676761"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1436423163"/>
+        <c:axId val="1185676761"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -261,7 +261,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1947478473"/>
+        <c:crossAx val="1174197210"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
